--- a/data/project_timeline/Project Timeline Update.xlsx
+++ b/data/project_timeline/Project Timeline Update.xlsx
@@ -717,16 +717,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J6" t="str">
-        <v>07/05/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K6" t="str">
         <v>false</v>
       </c>
       <c r="L6" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M6" t="str">
         <v/>
@@ -741,7 +741,7 @@
         <v/>
       </c>
       <c r="Q6" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="7">
@@ -1247,16 +1247,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J16" t="str">
-        <v>07/05/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K16" t="str">
         <v>false</v>
       </c>
       <c r="L16" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M16" t="str">
         <v/>
@@ -1271,7 +1271,7 @@
         <v/>
       </c>
       <c r="Q16" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="17">
@@ -1406,16 +1406,16 @@
         <v>07/02/2024</v>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J19" t="str">
-        <v>07/05/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K19" t="str">
         <v>false</v>
       </c>
       <c r="L19" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M19" t="str">
         <v/>
@@ -1430,7 +1430,7 @@
         <v/>
       </c>
       <c r="Q19" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="20">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>oHmPWxV8J0e1WaA9XV1o-pYALP8P</v>
+        <v>UbBISz40IECrl2OaZvmFTJYAI7i7</v>
       </c>
       <c r="B25" t="str">
-        <v>Scope detailing of Group 3: Doc 15</v>
+        <v>Fully signed mechanical Project Kick-off</v>
       </c>
       <c r="C25" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -1715,7 +1715,7 @@
         <v>Medium</v>
       </c>
       <c r="F25" t="str">
-        <v>Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G25" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -1727,13 +1727,13 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <v>07/05/2024</v>
+        <v>12/20/2024</v>
       </c>
       <c r="K25" t="str">
         <v>false</v>
       </c>
       <c r="L25" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M25" t="str">
         <v/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>UbBISz40IECrl2OaZvmFTJYAI7i7</v>
+        <v>08GNnXHklE-m8SIknMJOx5YAKlaN</v>
       </c>
       <c r="B26" t="str">
-        <v>Fully signed mechanical Project Kick-off</v>
+        <v>Project Kick-off (Mechanical)</v>
       </c>
       <c r="C26" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -1768,7 +1768,7 @@
         <v>Medium</v>
       </c>
       <c r="F26" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G26" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -1780,7 +1780,7 @@
         <v/>
       </c>
       <c r="J26" t="str">
-        <v>12/20/2024</v>
+        <v>12/13/2024</v>
       </c>
       <c r="K26" t="str">
         <v>false</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>08GNnXHklE-m8SIknMJOx5YAKlaN</v>
+        <v>JDxPTpxeHkyCJqcbKhypGZYACRs-</v>
       </c>
       <c r="B27" t="str">
-        <v>Project Kick-off (Mechanical)</v>
+        <v>Delivery of Cooling duct</v>
       </c>
       <c r="C27" t="str">
-        <v>PEC2020 - (EA) Process Adaptation</v>
+        <v>PEC2020 - PE Panel cooling system</v>
       </c>
       <c r="D27" t="str">
         <v>Not started</v>
@@ -1821,7 +1821,7 @@
         <v>Medium</v>
       </c>
       <c r="F27" t="str">
-        <v>Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G27" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -1833,7 +1833,7 @@
         <v/>
       </c>
       <c r="J27" t="str">
-        <v>12/13/2024</v>
+        <v>10/04/2024</v>
       </c>
       <c r="K27" t="str">
         <v>false</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>JDxPTpxeHkyCJqcbKhypGZYACRs-</v>
+        <v>Jr7nOUoq9kKD0372dNJtUJYAK1aX</v>
       </c>
       <c r="B28" t="str">
-        <v>Delivery of Cooling duct</v>
+        <v>Delivery of ACU</v>
       </c>
       <c r="C28" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -1886,7 +1886,7 @@
         <v/>
       </c>
       <c r="J28" t="str">
-        <v>10/04/2024</v>
+        <v>10/11/2024</v>
       </c>
       <c r="K28" t="str">
         <v>false</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Jr7nOUoq9kKD0372dNJtUJYAK1aX</v>
+        <v>h1Oq-WZVQkamORfBZdIk-ZYAMOhw</v>
       </c>
       <c r="B29" t="str">
-        <v>Delivery of ACU</v>
+        <v xml:space="preserve">PO release of Mechanical Works </v>
       </c>
       <c r="C29" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -1939,7 +1939,7 @@
         <v/>
       </c>
       <c r="J29" t="str">
-        <v>10/11/2024</v>
+        <v>08/30/2024</v>
       </c>
       <c r="K29" t="str">
         <v>false</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>h1Oq-WZVQkamORfBZdIk-ZYAMOhw</v>
+        <v>EMs3oLbsBUifYMr6SLkn55YAKXPE</v>
       </c>
       <c r="B30" t="str">
-        <v xml:space="preserve">PO release of Mechanical Works </v>
+        <v>PO conversion of ACU</v>
       </c>
       <c r="C30" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -1992,7 +1992,7 @@
         <v/>
       </c>
       <c r="J30" t="str">
-        <v>08/30/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K30" t="str">
         <v>false</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>EMs3oLbsBUifYMr6SLkn55YAKXPE</v>
+        <v>H9WavTRw_kOmROG05k2sNZYAOgmZ</v>
       </c>
       <c r="B31" t="str">
-        <v>PO conversion of ACU</v>
+        <v>PR conversion of Mechanical Works</v>
       </c>
       <c r="C31" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
       <c r="J31" t="str">
-        <v>07/19/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K31" t="str">
         <v>false</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>H9WavTRw_kOmROG05k2sNZYAOgmZ</v>
+        <v>MIyGQVhoJEG7XVhk3knJMpYAMVjK</v>
       </c>
       <c r="B32" t="str">
-        <v>PR conversion of Mechanical Works</v>
+        <v>Fully signed URS of ACU</v>
       </c>
       <c r="C32" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2086,7 +2086,7 @@
         <v>Medium</v>
       </c>
       <c r="F32" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G32" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2098,7 +2098,7 @@
         <v/>
       </c>
       <c r="J32" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K32" t="str">
         <v>false</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>MIyGQVhoJEG7XVhk3knJMpYAMVjK</v>
+        <v>aCGNGxoKSES4mgs_eslgBpYACODT</v>
       </c>
       <c r="B33" t="str">
-        <v>Fully signed URS of ACU</v>
+        <v>URS of ACU</v>
       </c>
       <c r="C33" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2139,7 +2139,7 @@
         <v>Medium</v>
       </c>
       <c r="F33" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G33" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2151,7 +2151,7 @@
         <v/>
       </c>
       <c r="J33" t="str">
-        <v>07/19/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K33" t="str">
         <v>false</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>aCGNGxoKSES4mgs_eslgBpYACODT</v>
+        <v>sd2pGqn1QUiDO208itnhm5YACd2l</v>
       </c>
       <c r="B34" t="str">
-        <v>URS of ACU</v>
+        <v>Fully signed Detailed drawing for Freon or Chilled water</v>
       </c>
       <c r="C34" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2192,7 +2192,7 @@
         <v>Medium</v>
       </c>
       <c r="F34" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G34" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2204,7 +2204,7 @@
         <v/>
       </c>
       <c r="J34" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K34" t="str">
         <v>false</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>sd2pGqn1QUiDO208itnhm5YACd2l</v>
+        <v>6PIu7yO76U6Yz5yY9I_WQZYALuCu</v>
       </c>
       <c r="B35" t="str">
-        <v>Fully signed Detailed drawing for Freon or Chilled water</v>
+        <v>Detailed drawing for Freon or Chilled water</v>
       </c>
       <c r="C35" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2245,7 +2245,7 @@
         <v>Medium</v>
       </c>
       <c r="F35" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G35" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2257,7 +2257,7 @@
         <v/>
       </c>
       <c r="J35" t="str">
-        <v>07/19/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K35" t="str">
         <v>false</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>6PIu7yO76U6Yz5yY9I_WQZYALuCu</v>
+        <v>ewXmt_4N8Ee1KuLASVakW5YAFCQ9</v>
       </c>
       <c r="B36" t="str">
-        <v>Detailed drawing for Freon or Chilled water</v>
+        <v xml:space="preserve">Fully signed Mechanical scope detailing </v>
       </c>
       <c r="C36" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2298,7 +2298,7 @@
         <v>Medium</v>
       </c>
       <c r="F36" t="str">
-        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G36" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2310,7 +2310,7 @@
         <v/>
       </c>
       <c r="J36" t="str">
-        <v>07/12/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K36" t="str">
         <v>false</v>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ewXmt_4N8Ee1KuLASVakW5YAFCQ9</v>
+        <v>7ztV2VbLeECpjp0vCaAmpZYAI6nz</v>
       </c>
       <c r="B37" t="str">
-        <v xml:space="preserve">Fully signed Mechanical scope detailing </v>
+        <v>Scope detailing - Mechanical</v>
       </c>
       <c r="C37" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -2351,7 +2351,7 @@
         <v>Medium</v>
       </c>
       <c r="F37" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G37" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2363,7 +2363,7 @@
         <v/>
       </c>
       <c r="J37" t="str">
-        <v>07/26/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K37" t="str">
         <v>false</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>7ztV2VbLeECpjp0vCaAmpZYAI6nz</v>
+        <v>IttKR-YV_UeyBFElyfgrHJYAPlcr</v>
       </c>
       <c r="B38" t="str">
-        <v>Scope detailing - Mechanical</v>
+        <v>Fully signed Cable Tray Fabrication drawing</v>
       </c>
       <c r="C38" t="str">
-        <v>PEC2020 - PE Panel cooling system</v>
+        <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
       </c>
       <c r="D38" t="str">
         <v>Not started</v>
@@ -2404,7 +2404,7 @@
         <v>Medium</v>
       </c>
       <c r="F38" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G38" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2416,7 +2416,7 @@
         <v/>
       </c>
       <c r="J38" t="str">
-        <v>07/19/2024</v>
+        <v>09/27/2024</v>
       </c>
       <c r="K38" t="str">
         <v>false</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>IttKR-YV_UeyBFElyfgrHJYAPlcr</v>
+        <v>G3dyLITLaESMCcw2F1YZqZYAJPMz</v>
       </c>
       <c r="B39" t="str">
-        <v>Fully signed Cable Tray Fabrication drawing</v>
+        <v>Fully signed Cable Tray Construction drawing</v>
       </c>
       <c r="C39" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>G3dyLITLaESMCcw2F1YZqZYAJPMz</v>
+        <v>DHAfsmVtQke-BEQjbLg01pYAJu7E</v>
       </c>
       <c r="B40" t="str">
-        <v>Fully signed Cable Tray Construction drawing</v>
+        <v>Cable Tray Construction drawing</v>
       </c>
       <c r="C40" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2510,7 +2510,7 @@
         <v>Medium</v>
       </c>
       <c r="F40" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
       </c>
       <c r="G40" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2522,7 +2522,7 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <v>09/27/2024</v>
+        <v>09/20/2024</v>
       </c>
       <c r="K40" t="str">
         <v>false</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>DHAfsmVtQke-BEQjbLg01pYAJu7E</v>
+        <v>7vDOB1fe4UmyvCVtf_tES5YAFb-q</v>
       </c>
       <c r="B41" t="str">
-        <v>Cable Tray Construction drawing</v>
+        <v>Cable Tray Fabrication drawing</v>
       </c>
       <c r="C41" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>7vDOB1fe4UmyvCVtf_tES5YAFb-q</v>
+        <v>zXofKtGls0qqWrC53qpDf5YAGRSI</v>
       </c>
       <c r="B42" t="str">
-        <v>Cable Tray Fabrication drawing</v>
+        <v>Fully Signed Scope detailing</v>
       </c>
       <c r="C42" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2616,7 +2616,7 @@
         <v>Medium</v>
       </c>
       <c r="F42" t="str">
-        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G42" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
       <c r="J42" t="str">
-        <v>09/20/2024</v>
+        <v>03/14/2025</v>
       </c>
       <c r="K42" t="str">
         <v>false</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>zXofKtGls0qqWrC53qpDf5YAGRSI</v>
+        <v>O9qcisAYokyWTY7R_4R5y5YAKb8h</v>
       </c>
       <c r="B43" t="str">
-        <v>Fully Signed Scope detailing</v>
+        <v>Scope detailing</v>
       </c>
       <c r="C43" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2669,7 +2669,7 @@
         <v>Medium</v>
       </c>
       <c r="F43" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G43" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2681,7 +2681,7 @@
         <v/>
       </c>
       <c r="J43" t="str">
-        <v>03/14/2025</v>
+        <v>03/07/2025</v>
       </c>
       <c r="K43" t="str">
         <v>false</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>O9qcisAYokyWTY7R_4R5y5YAKb8h</v>
+        <v>SAM5dnNRfkGPf0qmoIzSppYAFZHi</v>
       </c>
       <c r="B44" t="str">
-        <v>Scope detailing</v>
+        <v>Fully signed Project Kick-off</v>
       </c>
       <c r="C44" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2722,7 +2722,7 @@
         <v>Medium</v>
       </c>
       <c r="F44" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G44" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2734,7 +2734,7 @@
         <v/>
       </c>
       <c r="J44" t="str">
-        <v>03/07/2025</v>
+        <v>04/11/2025</v>
       </c>
       <c r="K44" t="str">
         <v>false</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SAM5dnNRfkGPf0qmoIzSppYAFZHi</v>
+        <v>zpT_ZCP4eE2F4iAbFyvFN5YAB5wd</v>
       </c>
       <c r="B45" t="str">
-        <v>Fully signed Project Kick-off</v>
+        <v>Project Kick-off</v>
       </c>
       <c r="C45" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2775,7 +2775,7 @@
         <v>Medium</v>
       </c>
       <c r="F45" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G45" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2787,7 +2787,7 @@
         <v/>
       </c>
       <c r="J45" t="str">
-        <v>04/11/2025</v>
+        <v>04/04/2025</v>
       </c>
       <c r="K45" t="str">
         <v>false</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>zpT_ZCP4eE2F4iAbFyvFN5YAB5wd</v>
+        <v>lsUoeFYwbUOiFYb1q4eBapYABLvM</v>
       </c>
       <c r="B46" t="str">
-        <v>Project Kick-off</v>
+        <v>Establish Governance meeting, ASI, and governance meeting</v>
       </c>
       <c r="C46" t="str">
         <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
@@ -2840,7 +2840,7 @@
         <v/>
       </c>
       <c r="J46" t="str">
-        <v>04/04/2025</v>
+        <v>02/07/2025</v>
       </c>
       <c r="K46" t="str">
         <v>false</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>lsUoeFYwbUOiFYb1q4eBapYABLvM</v>
+        <v>RVqfNWLqeUKsMg0GzkmepJYANVFx</v>
       </c>
       <c r="B47" t="str">
-        <v>Establish Governance meeting, ASI, and governance meeting</v>
+        <v>Delivery of Additional material</v>
       </c>
       <c r="C47" t="str">
-        <v>PEC2020 - Upgrade of Cooper tubes to Polyflo</v>
+        <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
       </c>
       <c r="D47" t="str">
         <v>Not started</v>
@@ -2881,7 +2881,7 @@
         <v>Medium</v>
       </c>
       <c r="F47" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G47" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -2893,7 +2893,7 @@
         <v/>
       </c>
       <c r="J47" t="str">
-        <v>02/07/2025</v>
+        <v>08/29/2025</v>
       </c>
       <c r="K47" t="str">
         <v>false</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>RVqfNWLqeUKsMg0GzkmepJYANVFx</v>
+        <v>RV6V6tRSJkqmndIkphGLvJYAA55l</v>
       </c>
       <c r="B48" t="str">
-        <v>Delivery of Additional material</v>
+        <v>PO of additional materials</v>
       </c>
       <c r="C48" t="str">
         <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
@@ -2946,7 +2946,7 @@
         <v/>
       </c>
       <c r="J48" t="str">
-        <v>08/29/2025</v>
+        <v/>
       </c>
       <c r="K48" t="str">
         <v>false</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>RV6V6tRSJkqmndIkphGLvJYAA55l</v>
+        <v>8cT-ZcMoZEGoFHCv6u-X5ZYAHaT2</v>
       </c>
       <c r="B49" t="str">
-        <v>PO of additional materials</v>
+        <v>PR of additional materials</v>
       </c>
       <c r="C49" t="str">
         <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>8cT-ZcMoZEGoFHCv6u-X5ZYAHaT2</v>
+        <v>fQhBbdlTbUqfjfCbSA9peZYAKN4X</v>
       </c>
       <c r="B50" t="str">
-        <v>PR of additional materials</v>
+        <v xml:space="preserve">Fully Signed Project Kick-off </v>
       </c>
       <c r="C50" t="str">
-        <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
+        <v>PEC2020 - PE Panel cooling system</v>
       </c>
       <c r="D50" t="str">
         <v>Not started</v>
@@ -3040,7 +3040,7 @@
         <v>Medium</v>
       </c>
       <c r="F50" t="str">
-        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G50" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3052,7 +3052,7 @@
         <v/>
       </c>
       <c r="J50" t="str">
-        <v/>
+        <v>07/31/2025</v>
       </c>
       <c r="K50" t="str">
         <v>false</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>fQhBbdlTbUqfjfCbSA9peZYAKN4X</v>
+        <v>8m4CTM_y2UOGM3Jx9qJzLJYAGuAJ</v>
       </c>
       <c r="B51" t="str">
-        <v xml:space="preserve">Fully Signed Project Kick-off </v>
+        <v>Fully Signed Project Kick-off</v>
       </c>
       <c r="C51" t="str">
-        <v>PEC2020 - PE Panel cooling system</v>
+        <v>PEC2020 - (EA) Process Adaptation</v>
       </c>
       <c r="D51" t="str">
         <v>Not started</v>
@@ -3105,7 +3105,7 @@
         <v/>
       </c>
       <c r="J51" t="str">
-        <v>07/31/2025</v>
+        <v>05/30/2025</v>
       </c>
       <c r="K51" t="str">
         <v>false</v>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>8m4CTM_y2UOGM3Jx9qJzLJYAGuAJ</v>
+        <v>RVea-mBeF02qWgGEahdZdZYAHNjN</v>
       </c>
       <c r="B52" t="str">
-        <v>Fully Signed Project Kick-off</v>
+        <v>Fully signed Project Kick-off</v>
       </c>
       <c r="C52" t="str">
-        <v>PEC2020 - (EA) Process Adaptation</v>
+        <v>PEC2020 - PLC Upgrade</v>
       </c>
       <c r="D52" t="str">
         <v>Not started</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>RVea-mBeF02qWgGEahdZdZYAHNjN</v>
+        <v>bmULzdBlZEml4XLbEdiI0ZYAG2Fp</v>
       </c>
       <c r="B53" t="str">
-        <v>Fully signed Project Kick-off</v>
+        <v xml:space="preserve">Fully Signed Project Kick-off </v>
       </c>
       <c r="C53" t="str">
-        <v>PEC2020 - PLC Upgrade</v>
+        <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
       </c>
       <c r="D53" t="str">
         <v>Not started</v>
@@ -3211,7 +3211,7 @@
         <v/>
       </c>
       <c r="J53" t="str">
-        <v>05/30/2025</v>
+        <v>03/14/2025</v>
       </c>
       <c r="K53" t="str">
         <v>false</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>bmULzdBlZEml4XLbEdiI0ZYAG2Fp</v>
+        <v>XaoBPIFS3EGzceUaRaB0gpYAJcl9</v>
       </c>
       <c r="B54" t="str">
-        <v xml:space="preserve">Fully Signed Project Kick-off </v>
+        <v>Project Kick-off</v>
       </c>
       <c r="C54" t="str">
         <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
@@ -3252,7 +3252,7 @@
         <v>Medium</v>
       </c>
       <c r="F54" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G54" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3264,7 +3264,7 @@
         <v/>
       </c>
       <c r="J54" t="str">
-        <v>03/14/2025</v>
+        <v>03/07/2025</v>
       </c>
       <c r="K54" t="str">
         <v>false</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>XaoBPIFS3EGzceUaRaB0gpYAJcl9</v>
+        <v>KjU6J_Q56UiCjxF0MsmCl5YAHj3w</v>
       </c>
       <c r="B55" t="str">
-        <v>Project Kick-off</v>
+        <v>Fully signed PLC Panel Construction drawing</v>
       </c>
       <c r="C55" t="str">
-        <v>PEC2020 - MCC Panel Upgrade and Motor Contor Update</v>
+        <v>PEC2020 - PLC Upgrade</v>
       </c>
       <c r="D55" t="str">
         <v>Not started</v>
@@ -3305,7 +3305,7 @@
         <v>Medium</v>
       </c>
       <c r="F55" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G55" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3317,7 +3317,7 @@
         <v/>
       </c>
       <c r="J55" t="str">
-        <v>03/07/2025</v>
+        <v>08/30/2024</v>
       </c>
       <c r="K55" t="str">
         <v>false</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>KjU6J_Q56UiCjxF0MsmCl5YAHj3w</v>
+        <v>bxQ-iHI2f0uks6cB7YMOiZYAEy7j</v>
       </c>
       <c r="B56" t="str">
-        <v>Fully signed PLC Panel Construction drawing</v>
+        <v>Fully signed PLC Panel Fabrication drawing</v>
       </c>
       <c r="C56" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>bxQ-iHI2f0uks6cB7YMOiZYAEy7j</v>
+        <v>R_jIivFraUKHrZR03YFNXJYAMc0M</v>
       </c>
       <c r="B57" t="str">
-        <v>Fully signed PLC Panel Fabrication drawing</v>
+        <v>Fully signed Cable Tray Construction drawing</v>
       </c>
       <c r="C57" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>R_jIivFraUKHrZR03YFNXJYAMc0M</v>
+        <v>dB8-Joi2fEWKnfUpeFUBvJYACMPf</v>
       </c>
       <c r="B58" t="str">
-        <v>Fully signed Cable Tray Construction drawing</v>
+        <v>Fully signed Cable Tray Fabrication drawing</v>
       </c>
       <c r="C58" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>dB8-Joi2fEWKnfUpeFUBvJYACMPf</v>
+        <v>JzOAg0RuuEKSslUOKdfbJZYALXbc</v>
       </c>
       <c r="B59" t="str">
-        <v>Fully signed Cable Tray Fabrication drawing</v>
+        <v>PLC Panel Construction drawing</v>
       </c>
       <c r="C59" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3517,7 +3517,7 @@
         <v>Medium</v>
       </c>
       <c r="F59" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
       </c>
       <c r="G59" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3529,7 +3529,7 @@
         <v/>
       </c>
       <c r="J59" t="str">
-        <v>08/30/2024</v>
+        <v>08/23/2024</v>
       </c>
       <c r="K59" t="str">
         <v>false</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>JzOAg0RuuEKSslUOKdfbJZYALXbc</v>
+        <v>D3m3l1nlDEWOs_uNkT8CfJYAIvDR</v>
       </c>
       <c r="B60" t="str">
-        <v>PLC Panel Construction drawing</v>
+        <v>PLC Panel Fabrication drawing</v>
       </c>
       <c r="C60" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>D3m3l1nlDEWOs_uNkT8CfJYAIvDR</v>
+        <v>Zky2ffpU70yC_BWvG1_xpZYAFAke</v>
       </c>
       <c r="B61" t="str">
-        <v>PLC Panel Fabrication drawing</v>
+        <v>Cable Tray Construction drawing</v>
       </c>
       <c r="C61" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3661,10 +3661,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Zky2ffpU70yC_BWvG1_xpZYAFAke</v>
+        <v>Tit3Jmx_REOBMKYmcDYrwJYANWPR</v>
       </c>
       <c r="B62" t="str">
-        <v>Cable Tray Construction drawing</v>
+        <v>Cable Tray Fabrication drawing</v>
       </c>
       <c r="C62" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Tit3Jmx_REOBMKYmcDYrwJYANWPR</v>
+        <v>qBY6J4OND0-1rIcCFuyc0ZYAJYVd</v>
       </c>
       <c r="B63" t="str">
-        <v>Cable Tray Fabrication drawing</v>
+        <v>Project Kick-off</v>
       </c>
       <c r="C63" t="str">
         <v>PEC2020 - PLC Upgrade</v>
@@ -3729,7 +3729,7 @@
         <v>Medium</v>
       </c>
       <c r="F63" t="str">
-        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G63" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="J63" t="str">
-        <v>08/23/2024</v>
+        <v>05/23/2025</v>
       </c>
       <c r="K63" t="str">
         <v>false</v>
@@ -3767,13 +3767,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>qBY6J4OND0-1rIcCFuyc0ZYAJYVd</v>
+        <v>kSBt8ZjH4EG8KSgCMCdS05YAPNUo</v>
       </c>
       <c r="B64" t="str">
-        <v>Project Kick-off</v>
+        <v>Delivery of  Valve terminal, sensors, and control cables</v>
       </c>
       <c r="C64" t="str">
-        <v>PEC2020 - PLC Upgrade</v>
+        <v>PEC2020 - (EA) Process Adaptation</v>
       </c>
       <c r="D64" t="str">
         <v>Not started</v>
@@ -3782,7 +3782,7 @@
         <v>Medium</v>
       </c>
       <c r="F64" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G64" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -3794,7 +3794,7 @@
         <v/>
       </c>
       <c r="J64" t="str">
-        <v>05/23/2025</v>
+        <v>07/25/2025</v>
       </c>
       <c r="K64" t="str">
         <v>false</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>kSBt8ZjH4EG8KSgCMCdS05YAPNUo</v>
+        <v>X5o64n_HuUiFMxi6WvYbm5YAAc-Z</v>
       </c>
       <c r="B65" t="str">
-        <v>Delivery of  Valve terminal, sensors, and control cables</v>
+        <v>PO release of Valve terminal, sensors, and control cables</v>
       </c>
       <c r="C65" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -3847,7 +3847,7 @@
         <v/>
       </c>
       <c r="J65" t="str">
-        <v>07/25/2025</v>
+        <v>04/25/2025</v>
       </c>
       <c r="K65" t="str">
         <v>false</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>X5o64n_HuUiFMxi6WvYbm5YAAc-Z</v>
+        <v>adH1V_P86kG2LY3mILhiiJYAJpy9</v>
       </c>
       <c r="B66" t="str">
-        <v>PO release of Valve terminal, sensors, and control cables</v>
+        <v>PO release of Festo Valve Terminal &amp; Instruments for PEC2020</v>
       </c>
       <c r="C66" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>adH1V_P86kG2LY3mILhiiJYAJpy9</v>
+        <v>YB1GAZ2dEka3nMolmujBN5YAIOjd</v>
       </c>
       <c r="B67" t="str">
-        <v>PO release of Festo Valve Terminal &amp; Instruments for PEC2020</v>
+        <v>PR conversion of Valve terminal, sensors, and control cables</v>
       </c>
       <c r="C67" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -3953,7 +3953,7 @@
         <v/>
       </c>
       <c r="J67" t="str">
-        <v>04/25/2025</v>
+        <v>10/18/2024</v>
       </c>
       <c r="K67" t="str">
         <v>false</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>YB1GAZ2dEka3nMolmujBN5YAIOjd</v>
+        <v>j9HTS4wfcUyGGIJ86fTqa5YAHSuZ</v>
       </c>
       <c r="B68" t="str">
-        <v>PR conversion of Valve terminal, sensors, and control cables</v>
+        <v>PR conversion of Festo Valve Terminal &amp; Instruments for PEC2020</v>
       </c>
       <c r="C68" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>j9HTS4wfcUyGGIJ86fTqa5YAHSuZ</v>
+        <v>egjsiTrUw0GyvNsd2CvprJYAD-7f</v>
       </c>
       <c r="B69" t="str">
-        <v>PR conversion of Festo Valve Terminal &amp; Instruments for PEC2020</v>
+        <v>Fully signed URS of Festo Valve</v>
       </c>
       <c r="C69" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4047,7 +4047,7 @@
         <v>Medium</v>
       </c>
       <c r="F69" t="str">
-        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G69" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4059,7 +4059,7 @@
         <v/>
       </c>
       <c r="J69" t="str">
-        <v>10/18/2024</v>
+        <v>02/28/2025</v>
       </c>
       <c r="K69" t="str">
         <v>false</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>egjsiTrUw0GyvNsd2CvprJYAD-7f</v>
+        <v>W2o65gfbn06uaVkYqbv4bZYAMSvA</v>
       </c>
       <c r="B70" t="str">
-        <v>Fully signed URS of Festo Valve</v>
+        <v>URS creation of Festo Valve &amp; Instruments</v>
       </c>
       <c r="C70" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4100,7 +4100,7 @@
         <v>Medium</v>
       </c>
       <c r="F70" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G70" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4112,7 +4112,7 @@
         <v/>
       </c>
       <c r="J70" t="str">
-        <v>02/28/2025</v>
+        <v>02/21/2025</v>
       </c>
       <c r="K70" t="str">
         <v>false</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>W2o65gfbn06uaVkYqbv4bZYAMSvA</v>
+        <v>jsgN-zVAzkuYUeEGO71ngZYAKQEd</v>
       </c>
       <c r="B71" t="str">
-        <v>URS creation of Festo Valve &amp; Instruments</v>
+        <v>Fully signed Cable tray Construction drawing</v>
       </c>
       <c r="C71" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4153,7 +4153,7 @@
         <v>Medium</v>
       </c>
       <c r="F71" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G71" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4165,7 +4165,7 @@
         <v/>
       </c>
       <c r="J71" t="str">
-        <v>02/21/2025</v>
+        <v>10/25/2024</v>
       </c>
       <c r="K71" t="str">
         <v>false</v>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>jsgN-zVAzkuYUeEGO71ngZYAKQEd</v>
+        <v>_Uu4YpXt4ki2cTwOpy6BtpYAOmeT</v>
       </c>
       <c r="B72" t="str">
-        <v>Fully signed Cable tray Construction drawing</v>
+        <v>Cable tray Construction drawing</v>
       </c>
       <c r="C72" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4206,7 +4206,7 @@
         <v>Medium</v>
       </c>
       <c r="F72" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
       </c>
       <c r="G72" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4218,7 +4218,7 @@
         <v/>
       </c>
       <c r="J72" t="str">
-        <v>10/25/2024</v>
+        <v>10/18/2024</v>
       </c>
       <c r="K72" t="str">
         <v>false</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>_Uu4YpXt4ki2cTwOpy6BtpYAOmeT</v>
+        <v>oHBR9QQH202WsNfiFU-jf5YAH82d</v>
       </c>
       <c r="B73" t="str">
-        <v>Cable tray Construction drawing</v>
+        <v>Fully signed Cable tray Fabrication drawing</v>
       </c>
       <c r="C73" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4259,7 +4259,7 @@
         <v>Medium</v>
       </c>
       <c r="F73" t="str">
-        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G73" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4271,7 +4271,7 @@
         <v/>
       </c>
       <c r="J73" t="str">
-        <v>10/18/2024</v>
+        <v>09/27/2024</v>
       </c>
       <c r="K73" t="str">
         <v>false</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>oHBR9QQH202WsNfiFU-jf5YAH82d</v>
+        <v>vGyltFQtUkyIR7s47nzkvZYAJ0V4</v>
       </c>
       <c r="B74" t="str">
-        <v>Fully signed Cable tray Fabrication drawing</v>
+        <v>Cable tray Fabrication drawing</v>
       </c>
       <c r="C74" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4312,7 +4312,7 @@
         <v>Medium</v>
       </c>
       <c r="F74" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
       </c>
       <c r="G74" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4324,7 +4324,7 @@
         <v/>
       </c>
       <c r="J74" t="str">
-        <v>09/27/2024</v>
+        <v>09/20/2024</v>
       </c>
       <c r="K74" t="str">
         <v>false</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>vGyltFQtUkyIR7s47nzkvZYAJ0V4</v>
+        <v>PpjlS-Y8qUKgzCUjw7s7a5YAFBVB</v>
       </c>
       <c r="B75" t="str">
-        <v>Cable tray Fabrication drawing</v>
+        <v>Fully signed Scope detailing</v>
       </c>
       <c r="C75" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4365,7 +4365,7 @@
         <v>Medium</v>
       </c>
       <c r="F75" t="str">
-        <v>Ballentos,Shanel,PH-Cagayan de Oro,Manufacturing,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G75" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4377,7 +4377,7 @@
         <v/>
       </c>
       <c r="J75" t="str">
-        <v>09/20/2024</v>
+        <v>05/16/2025</v>
       </c>
       <c r="K75" t="str">
         <v>false</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>PpjlS-Y8qUKgzCUjw7s7a5YAFBVB</v>
+        <v>j0HcRDH50UqCyEulmMuzfJYAG2p3</v>
       </c>
       <c r="B76" t="str">
-        <v>Fully signed Scope detailing</v>
+        <v>Create Scope Detailing</v>
       </c>
       <c r="C76" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4418,7 +4418,7 @@
         <v>Medium</v>
       </c>
       <c r="F76" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G76" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4430,7 +4430,7 @@
         <v/>
       </c>
       <c r="J76" t="str">
-        <v>05/16/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="K76" t="str">
         <v>false</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>j0HcRDH50UqCyEulmMuzfJYAG2p3</v>
+        <v>_29W3P-T1UmDrp2rnz-JEJYAGaZM</v>
       </c>
       <c r="B77" t="str">
-        <v>Create Scope Detailing</v>
+        <v>Project Kick-off</v>
       </c>
       <c r="C77" t="str">
         <v>PEC2020 - (EA) Process Adaptation</v>
@@ -4483,7 +4483,7 @@
         <v/>
       </c>
       <c r="J77" t="str">
-        <v>05/09/2025</v>
+        <v>05/16/2025</v>
       </c>
       <c r="K77" t="str">
         <v>false</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>_29W3P-T1UmDrp2rnz-JEJYAGaZM</v>
+        <v>7IOXhEjl8E6C81QTCyGP4JYANBIB</v>
       </c>
       <c r="B78" t="str">
-        <v>Project Kick-off</v>
+        <v xml:space="preserve">Project Kick-off </v>
       </c>
       <c r="C78" t="str">
-        <v>PEC2020 - (EA) Process Adaptation</v>
+        <v>PEC2020 - PE Panel cooling system</v>
       </c>
       <c r="D78" t="str">
         <v>Not started</v>
@@ -4536,7 +4536,7 @@
         <v/>
       </c>
       <c r="J78" t="str">
-        <v>05/16/2025</v>
+        <v>07/25/2025</v>
       </c>
       <c r="K78" t="str">
         <v>false</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>7IOXhEjl8E6C81QTCyGP4JYANBIB</v>
+        <v>IehKXb2I60u1q3cudI3wjZYAIz6u</v>
       </c>
       <c r="B79" t="str">
-        <v xml:space="preserve">Project Kick-off </v>
+        <v>Delivery of additional control cables</v>
       </c>
       <c r="C79" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -4589,7 +4589,7 @@
         <v/>
       </c>
       <c r="J79" t="str">
-        <v>07/25/2025</v>
+        <v>05/30/2025</v>
       </c>
       <c r="K79" t="str">
         <v>false</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>IehKXb2I60u1q3cudI3wjZYAIz6u</v>
+        <v>w0v3Q4wTb0mm6oA4q8rsPZYACcY1</v>
       </c>
       <c r="B80" t="str">
-        <v>Delivery of additional control cables</v>
+        <v>PO release of Additional Control Cables and Cable trays</v>
       </c>
       <c r="C80" t="str">
         <v>PEC2020 - PE Panel cooling system</v>
@@ -4630,7 +4630,7 @@
         <v>Medium</v>
       </c>
       <c r="F80" t="str">
-        <v>Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G80" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4642,7 +4642,7 @@
         <v/>
       </c>
       <c r="J80" t="str">
-        <v>05/30/2025</v>
+        <v>08/30/2024</v>
       </c>
       <c r="K80" t="str">
         <v>false</v>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>w0v3Q4wTb0mm6oA4q8rsPZYACcY1</v>
+        <v>akc8BhvG60KBG6RoKFGfsZYAC3Mh</v>
       </c>
       <c r="B81" t="str">
-        <v>PO release of Additional Control Cables and Cable trays</v>
+        <v>Submission of Catch-up plan reports</v>
       </c>
       <c r="C81" t="str">
-        <v>PEC2020 - PE Panel cooling system</v>
+        <v>Reminders</v>
       </c>
       <c r="D81" t="str">
         <v>Not started</v>
@@ -4683,7 +4683,7 @@
         <v>Medium</v>
       </c>
       <c r="F81" t="str">
-        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External;Salvana,Myka,PH-Cagayan de Oro,Engineering,External;Suello,Rosiell,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G81" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4692,13 +4692,13 @@
         <v>07/02/2024</v>
       </c>
       <c r="I81" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J81" t="str">
-        <v>08/30/2024</v>
+        <v>12/31/2024</v>
       </c>
       <c r="K81" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="L81" t="str">
         <v>false</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>akc8BhvG60KBG6RoKFGfsZYAC3Mh</v>
+        <v>DAMS4sic8ESehdOJW7YfGJYAPVXn</v>
       </c>
       <c r="B82" t="str">
-        <v>Submission of Catch-up plan reports</v>
+        <v>Timeline Update</v>
       </c>
       <c r="C82" t="str">
         <v>Reminders</v>
@@ -4736,7 +4736,7 @@
         <v>Medium</v>
       </c>
       <c r="F82" t="str">
-        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External;Salvana,Myka,PH-Cagayan de Oro,Engineering,External;Suello,Rosiell,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External;Salvana,Myka,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G82" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4745,7 +4745,7 @@
         <v>07/02/2024</v>
       </c>
       <c r="I82" t="str">
-        <v>07/05/2024</v>
+        <v>07/04/2024</v>
       </c>
       <c r="J82" t="str">
         <v>12/31/2024</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>DAMS4sic8ESehdOJW7YfGJYAPVXn</v>
+        <v>axfJiI1LekCjHrVzChKny5YAMXy4</v>
       </c>
       <c r="B83" t="str">
-        <v>Timeline Update</v>
+        <v>Delivery of Pipes</v>
       </c>
       <c r="C83" t="str">
-        <v>Reminders</v>
+        <v>E54 High Pressure Water Heater</v>
       </c>
       <c r="D83" t="str">
         <v>Not started</v>
@@ -4789,7 +4789,7 @@
         <v>Medium</v>
       </c>
       <c r="F83" t="str">
-        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Pacatan,Arnold,PH-Cagayan de Oro,Engineering,External;Salvana,Myka,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G83" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4798,13 +4798,13 @@
         <v>07/02/2024</v>
       </c>
       <c r="I83" t="str">
-        <v>07/04/2024</v>
+        <v/>
       </c>
       <c r="J83" t="str">
-        <v>12/31/2024</v>
+        <v>12/13/2024</v>
       </c>
       <c r="K83" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="L83" t="str">
         <v>false</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>axfJiI1LekCjHrVzChKny5YAMXy4</v>
+        <v>zd9s51s7HEudN0hNK5YC4JYAMZTA</v>
       </c>
       <c r="B84" t="str">
-        <v>Delivery of Pipes</v>
+        <v>Delivery of Water Heater Equipment</v>
       </c>
       <c r="C84" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -4854,7 +4854,7 @@
         <v/>
       </c>
       <c r="J84" t="str">
-        <v>12/13/2024</v>
+        <v>11/29/2024</v>
       </c>
       <c r="K84" t="str">
         <v>false</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>zd9s51s7HEudN0hNK5YC4JYAMZTA</v>
+        <v>QiU7ng6vV0eFK8YPF0zha5YAD6hZ</v>
       </c>
       <c r="B85" t="str">
-        <v>Delivery of Water Heater Equipment</v>
+        <v>PO release for Mechanical Works</v>
       </c>
       <c r="C85" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -4907,7 +4907,7 @@
         <v/>
       </c>
       <c r="J85" t="str">
-        <v>11/29/2024</v>
+        <v>08/23/2024</v>
       </c>
       <c r="K85" t="str">
         <v>false</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>QiU7ng6vV0eFK8YPF0zha5YAD6hZ</v>
+        <v>fsfmBYDLAUed41eN3JLry5YALPB6</v>
       </c>
       <c r="B86" t="str">
-        <v>PO release for Mechanical Works</v>
+        <v>Pre-bidding for Mechanical Works</v>
       </c>
       <c r="C86" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -4948,7 +4948,7 @@
         <v>Medium</v>
       </c>
       <c r="F86" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G86" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -4960,7 +4960,7 @@
         <v/>
       </c>
       <c r="J86" t="str">
-        <v>08/23/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K86" t="str">
         <v>false</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>fsfmBYDLAUed41eN3JLry5YALPB6</v>
+        <v>wh1b4q0XeUKsMsA-gVVezZYACTvJ</v>
       </c>
       <c r="B87" t="str">
-        <v>Pre-bidding for Mechanical Works</v>
+        <v>PR for Mechanical Works</v>
       </c>
       <c r="C87" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5001,7 +5001,7 @@
         <v>Medium</v>
       </c>
       <c r="F87" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G87" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>wh1b4q0XeUKsMsA-gVVezZYACTvJ</v>
+        <v>x-SORs2P40eY6r5-R_Ljz5YAMtr1</v>
       </c>
       <c r="B88" t="str">
-        <v>PR for Mechanical Works</v>
+        <v>Fully signed URS</v>
       </c>
       <c r="C88" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5054,7 +5054,7 @@
         <v>Medium</v>
       </c>
       <c r="F88" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G88" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5066,7 +5066,7 @@
         <v/>
       </c>
       <c r="J88" t="str">
-        <v>07/19/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K88" t="str">
         <v>false</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>x-SORs2P40eY6r5-R_Ljz5YAMtr1</v>
+        <v>ym07GL4nuESTYHeTGwhrT5YACt0t</v>
       </c>
       <c r="B89" t="str">
-        <v>Fully signed URS</v>
+        <v>Fully Signed drawing of High Pressure Water Heater</v>
       </c>
       <c r="C89" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5119,7 +5119,7 @@
         <v/>
       </c>
       <c r="J89" t="str">
-        <v>07/26/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K89" t="str">
         <v>false</v>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>ym07GL4nuESTYHeTGwhrT5YACt0t</v>
+        <v>l2BFQ5brS0CwpxerlqWEx5YALIjD</v>
       </c>
       <c r="B90" t="str">
-        <v>Fully Signed drawing of High Pressure Water Heater</v>
+        <v>Construction drawing of High Pressure Water Heater</v>
       </c>
       <c r="C90" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5160,7 +5160,7 @@
         <v>Medium</v>
       </c>
       <c r="F90" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G90" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5172,7 +5172,7 @@
         <v/>
       </c>
       <c r="J90" t="str">
-        <v>07/19/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K90" t="str">
         <v>false</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>l2BFQ5brS0CwpxerlqWEx5YALIjD</v>
+        <v>l_S_xTKnqEGMQgtW-vd3apYAA16A</v>
       </c>
       <c r="B91" t="str">
-        <v>Construction drawing of High Pressure Water Heater</v>
+        <v>Fully signed Scope detailing</v>
       </c>
       <c r="C91" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5213,7 +5213,7 @@
         <v>Medium</v>
       </c>
       <c r="F91" t="str">
-        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G91" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5225,7 +5225,7 @@
         <v/>
       </c>
       <c r="J91" t="str">
-        <v>07/12/2024</v>
+        <v>07/19/2024</v>
       </c>
       <c r="K91" t="str">
         <v>false</v>
@@ -5251,10 +5251,10 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>l_S_xTKnqEGMQgtW-vd3apYAA16A</v>
+        <v>_nesj__zdUyJbbOt_byYzJYAA4fP</v>
       </c>
       <c r="B92" t="str">
-        <v>Fully signed Scope detailing</v>
+        <v>Creation of Scope Detailing</v>
       </c>
       <c r="C92" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5266,7 +5266,7 @@
         <v>Medium</v>
       </c>
       <c r="F92" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G92" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5278,7 +5278,7 @@
         <v/>
       </c>
       <c r="J92" t="str">
-        <v>07/19/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K92" t="str">
         <v>false</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>_nesj__zdUyJbbOt_byYzJYAA4fP</v>
+        <v>Uw4UUs0UK02cNRklTLxczZYAJve6</v>
       </c>
       <c r="B93" t="str">
-        <v>Creation of Scope Detailing</v>
+        <v>Fully signed Project Kick-off</v>
       </c>
       <c r="C93" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5319,7 +5319,7 @@
         <v>Medium</v>
       </c>
       <c r="F93" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G93" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5331,7 +5331,7 @@
         <v/>
       </c>
       <c r="J93" t="str">
-        <v>07/12/2024</v>
+        <v>07/31/2024</v>
       </c>
       <c r="K93" t="str">
         <v>false</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Uw4UUs0UK02cNRklTLxczZYAJve6</v>
+        <v>KWMQQ7Wr50G2zg2YVjC_P5YADJ4D</v>
       </c>
       <c r="B94" t="str">
-        <v>Fully signed Project Kick-off</v>
+        <v>Project Kick-off</v>
       </c>
       <c r="C94" t="str">
         <v>E54 High Pressure Water Heater</v>
@@ -5372,7 +5372,7 @@
         <v>Medium</v>
       </c>
       <c r="F94" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G94" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5384,7 +5384,7 @@
         <v/>
       </c>
       <c r="J94" t="str">
-        <v>07/31/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K94" t="str">
         <v>false</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>KWMQQ7Wr50G2zg2YVjC_P5YADJ4D</v>
+        <v>or3JIKm3PUme48dO_lG9mJYAKD7P</v>
       </c>
       <c r="B95" t="str">
-        <v>Project Kick-off</v>
+        <v>Delivery of Pump</v>
       </c>
       <c r="C95" t="str">
-        <v>E54 High Pressure Water Heater</v>
+        <v>Softwater</v>
       </c>
       <c r="D95" t="str">
         <v>Not started</v>
@@ -5425,7 +5425,7 @@
         <v>Medium</v>
       </c>
       <c r="F95" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G95" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>or3JIKm3PUme48dO_lG9mJYAKD7P</v>
+        <v>a9GMn9qnSUqLMnjss1I-jJYACTGq</v>
       </c>
       <c r="B96" t="str">
-        <v>Delivery of Pump</v>
+        <v>Delivery of Fabrication Works</v>
       </c>
       <c r="C96" t="str">
-        <v>Softwater</v>
+        <v>FFE RARE</v>
       </c>
       <c r="D96" t="str">
         <v>Not started</v>
@@ -5478,7 +5478,7 @@
         <v>Medium</v>
       </c>
       <c r="F96" t="str">
-        <v>Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External;Yap,Brian,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G96" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5490,7 +5490,7 @@
         <v/>
       </c>
       <c r="J96" t="str">
-        <v>07/26/2024</v>
+        <v>09/03/2024</v>
       </c>
       <c r="K96" t="str">
         <v>false</v>
@@ -5516,10 +5516,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>a9GMn9qnSUqLMnjss1I-jJYACTGq</v>
+        <v>izC0CEyr40KoqnyCWlK-t5YAJjaX</v>
       </c>
       <c r="B97" t="str">
-        <v>Delivery of Fabrication Works</v>
+        <v>Delivery of Rotary Filter and Accessories</v>
       </c>
       <c r="C97" t="str">
         <v>FFE RARE</v>
@@ -5543,7 +5543,7 @@
         <v/>
       </c>
       <c r="J97" t="str">
-        <v>09/03/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K97" t="str">
         <v>false</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>izC0CEyr40KoqnyCWlK-t5YAJjaX</v>
+        <v>kp1U28JIAU-vk-rO59uziJYADNyw</v>
       </c>
       <c r="B98" t="str">
-        <v>Delivery of Rotary Filter and Accessories</v>
+        <v>Delivery of Civil Materials</v>
       </c>
       <c r="C98" t="str">
         <v>FFE RARE</v>
@@ -5584,7 +5584,7 @@
         <v>Medium</v>
       </c>
       <c r="F98" t="str">
-        <v>Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G98" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5596,7 +5596,7 @@
         <v/>
       </c>
       <c r="J98" t="str">
-        <v>07/26/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K98" t="str">
         <v>false</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>kp1U28JIAU-vk-rO59uziJYADNyw</v>
+        <v>TDyMVFF-WEKepbZt555irZYAJwzb</v>
       </c>
       <c r="B99" t="str">
-        <v>Delivery of Civil Materials</v>
+        <v>PO release for Civil Works</v>
       </c>
       <c r="C99" t="str">
         <v>FFE RARE</v>
@@ -5646,7 +5646,7 @@
         <v>07/02/2024</v>
       </c>
       <c r="I99" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J99" t="str">
         <v>07/12/2024</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>F7oanfR0-U2sRhXmu6bF65YADLGy</v>
+        <v>lUE61XBZ1U2FAZGSIDo7-5YAMYda</v>
       </c>
       <c r="B100" t="str">
-        <v>PO release of Rotary Filter</v>
+        <v>PR release for Civil Materials</v>
       </c>
       <c r="C100" t="str">
         <v>FFE RARE</v>
@@ -5690,7 +5690,7 @@
         <v>Medium</v>
       </c>
       <c r="F100" t="str">
-        <v>Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G100" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5699,10 +5699,10 @@
         <v>07/02/2024</v>
       </c>
       <c r="I100" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J100" t="str">
-        <v>07/26/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K100" t="str">
         <v>false</v>
@@ -5723,18 +5723,18 @@
         <v/>
       </c>
       <c r="Q100" t="str">
-        <v/>
+        <v>CATCH-UP PLAN</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>TDyMVFF-WEKepbZt555irZYAJwzb</v>
+        <v>lI8D7H0oqEScMSNkU5n-KJYAD1Xa</v>
       </c>
       <c r="B101" t="str">
-        <v>PO release for Civil Works</v>
+        <v>Delivery of Dust Collector</v>
       </c>
       <c r="C101" t="str">
-        <v>FFE RARE</v>
+        <v>Van Tilting</v>
       </c>
       <c r="D101" t="str">
         <v>Not started</v>
@@ -5743,7 +5743,7 @@
         <v>Medium</v>
       </c>
       <c r="F101" t="str">
-        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G101" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5755,13 +5755,13 @@
         <v/>
       </c>
       <c r="J101" t="str">
-        <v>07/05/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K101" t="str">
         <v>false</v>
       </c>
       <c r="L101" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M101" t="str">
         <v/>
@@ -5781,13 +5781,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>lUE61XBZ1U2FAZGSIDo7-5YAMYda</v>
+        <v>Fbrek4Bz2EqOGv5r0oWO0ZYADlfo</v>
       </c>
       <c r="B102" t="str">
-        <v>PR release for Civil Materials</v>
+        <v>Delivery of Dust Collector and Duct</v>
       </c>
       <c r="C102" t="str">
-        <v>FFE RARE</v>
+        <v>GC Transport PH2</v>
       </c>
       <c r="D102" t="str">
         <v>Not started</v>
@@ -5796,7 +5796,7 @@
         <v>Medium</v>
       </c>
       <c r="F102" t="str">
-        <v>Galicia,Shella Mae,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G102" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -5808,13 +5808,13 @@
         <v/>
       </c>
       <c r="J102" t="str">
-        <v>07/05/2024</v>
+        <v>02/07/2025</v>
       </c>
       <c r="K102" t="str">
         <v>false</v>
       </c>
       <c r="L102" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M102" t="str">
         <v/>
@@ -5834,13 +5834,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>lI8D7H0oqEScMSNkU5n-KJYAD1Xa</v>
+        <v>e29vKJ0R1E2_iqmcmsLwB5YAFmWh</v>
       </c>
       <c r="B103" t="str">
-        <v>Delivery of Dust Collector</v>
+        <v>PO Release for Mechanical Works</v>
       </c>
       <c r="C103" t="str">
-        <v>Van Tilting</v>
+        <v>GC Transport PH2</v>
       </c>
       <c r="D103" t="str">
         <v>Not started</v>
@@ -5861,7 +5861,7 @@
         <v/>
       </c>
       <c r="J103" t="str">
-        <v>07/12/2024</v>
+        <v>10/31/2024</v>
       </c>
       <c r="K103" t="str">
         <v>false</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Fbrek4Bz2EqOGv5r0oWO0ZYADlfo</v>
+        <v>dYvwqOc8H0KaU2SHorMr7pYAHT_H</v>
       </c>
       <c r="B104" t="str">
-        <v>Delivery of Dust Collector and Duct</v>
+        <v>PO release for Dust Collector</v>
       </c>
       <c r="C104" t="str">
         <v>GC Transport PH2</v>
@@ -5914,7 +5914,7 @@
         <v/>
       </c>
       <c r="J104" t="str">
-        <v>02/07/2025</v>
+        <v>08/16/2024</v>
       </c>
       <c r="K104" t="str">
         <v>false</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>e29vKJ0R1E2_iqmcmsLwB5YAFmWh</v>
+        <v>ykeo8d-ovUGsGY4n6XR7vpYAP3do</v>
       </c>
       <c r="B105" t="str">
-        <v>PO Release for Mechanical Works</v>
+        <v>Pre-bidding for Mechanical Works</v>
       </c>
       <c r="C105" t="str">
         <v>GC Transport PH2</v>
@@ -5967,7 +5967,7 @@
         <v/>
       </c>
       <c r="J105" t="str">
-        <v>10/31/2024</v>
+        <v>09/13/2024</v>
       </c>
       <c r="K105" t="str">
         <v>false</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>dYvwqOc8H0KaU2SHorMr7pYAHT_H</v>
+        <v>HLNS14i-F0qn400PTXiTj5YAOGUI</v>
       </c>
       <c r="B106" t="str">
-        <v>PO release for Dust Collector</v>
+        <v>Pre-bidding for Dust Collector</v>
       </c>
       <c r="C106" t="str">
         <v>GC Transport PH2</v>
@@ -6020,13 +6020,13 @@
         <v/>
       </c>
       <c r="J106" t="str">
-        <v>08/16/2024</v>
+        <v>07/05/2024</v>
       </c>
       <c r="K106" t="str">
         <v>false</v>
       </c>
       <c r="L106" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M106" t="str">
         <v/>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>ykeo8d-ovUGsGY4n6XR7vpYAP3do</v>
+        <v>qozWM9fwNkW-_FPLUVmD6JYAKWRY</v>
       </c>
       <c r="B107" t="str">
-        <v>Pre-bidding for Mechanical Works</v>
+        <v>PR for Mechanical Works</v>
       </c>
       <c r="C107" t="str">
         <v>GC Transport PH2</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>HLNS14i-F0qn400PTXiTj5YAOGUI</v>
+        <v>ow3mBvFXOEyK5PuQdn3FSJYAEy4Z</v>
       </c>
       <c r="B108" t="str">
-        <v>Pre-bidding for Dust Collector</v>
+        <v>PR for Dust Collector</v>
       </c>
       <c r="C108" t="str">
         <v>GC Transport PH2</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>qozWM9fwNkW-_FPLUVmD6JYAKWRY</v>
+        <v>1SpIpIETvkScbFihjXts6pYAI0lT</v>
       </c>
       <c r="B109" t="str">
-        <v>PR for Mechanical Works</v>
+        <v>Fully Signed Design Freeze for P&amp;ID</v>
       </c>
       <c r="C109" t="str">
         <v>GC Transport PH2</v>
@@ -6167,7 +6167,7 @@
         <v>Medium</v>
       </c>
       <c r="F109" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G109" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6179,7 +6179,7 @@
         <v/>
       </c>
       <c r="J109" t="str">
-        <v>09/13/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K109" t="str">
         <v>false</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>ow3mBvFXOEyK5PuQdn3FSJYAEy4Z</v>
+        <v>XlnA1B4qpkatqf-h6TlePJYAEYaD</v>
       </c>
       <c r="B110" t="str">
-        <v>PR for Dust Collector</v>
+        <v>Fully Signed Design Freeze for Piping Lay-out</v>
       </c>
       <c r="C110" t="str">
         <v>GC Transport PH2</v>
@@ -6220,7 +6220,7 @@
         <v>Medium</v>
       </c>
       <c r="F110" t="str">
-        <v>Las Piñas,Dennis,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G110" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6232,13 +6232,13 @@
         <v/>
       </c>
       <c r="J110" t="str">
-        <v>07/05/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K110" t="str">
         <v>false</v>
       </c>
       <c r="L110" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M110" t="str">
         <v/>
@@ -6258,10 +6258,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>1SpIpIETvkScbFihjXts6pYAI0lT</v>
+        <v>1jClaOwwv0iO-zVaQxW3tZYAKy1z</v>
       </c>
       <c r="B111" t="str">
-        <v>Fully Signed Design Freeze for P&amp;ID</v>
+        <v>Creation of Design Freeze for P&amp;ID</v>
       </c>
       <c r="C111" t="str">
         <v>GC Transport PH2</v>
@@ -6273,7 +6273,7 @@
         <v>Medium</v>
       </c>
       <c r="F111" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G111" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6285,13 +6285,13 @@
         <v/>
       </c>
       <c r="J111" t="str">
-        <v>07/12/2024</v>
+        <v>07/10/2024</v>
       </c>
       <c r="K111" t="str">
         <v>false</v>
       </c>
       <c r="L111" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M111" t="str">
         <v/>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>XlnA1B4qpkatqf-h6TlePJYAEYaD</v>
+        <v>-kazeqqA2EGxiJ14zpFDjpYALoca</v>
       </c>
       <c r="B112" t="str">
-        <v>Fully Signed Design Freeze for Piping Lay-out</v>
+        <v>Creation of Design Freeze for Piping Lay-out</v>
       </c>
       <c r="C112" t="str">
         <v>GC Transport PH2</v>
@@ -6326,7 +6326,7 @@
         <v>Medium</v>
       </c>
       <c r="F112" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G112" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6338,13 +6338,13 @@
         <v/>
       </c>
       <c r="J112" t="str">
-        <v>07/12/2024</v>
+        <v>07/10/2024</v>
       </c>
       <c r="K112" t="str">
         <v>false</v>
       </c>
       <c r="L112" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M112" t="str">
         <v/>
@@ -6364,10 +6364,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>1jClaOwwv0iO-zVaQxW3tZYAKy1z</v>
+        <v>GXSOhE-jB0iV_FVwFlMcdJYACJcB</v>
       </c>
       <c r="B113" t="str">
-        <v>Creation of Design Freeze for P&amp;ID</v>
+        <v>Creation of Design Freeze for Dust Collector</v>
       </c>
       <c r="C113" t="str">
         <v>GC Transport PH2</v>
@@ -6397,7 +6397,7 @@
         <v>false</v>
       </c>
       <c r="L113" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M113" t="str">
         <v/>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>-kazeqqA2EGxiJ14zpFDjpYALoca</v>
+        <v>-HSgex3d-keTvOed7xmNwpYAKIRR</v>
       </c>
       <c r="B114" t="str">
-        <v>Creation of Design Freeze for Piping Lay-out</v>
+        <v>Fully Signed Design Freeze for Dust Collector</v>
       </c>
       <c r="C114" t="str">
         <v>GC Transport PH2</v>
@@ -6432,7 +6432,7 @@
         <v>Medium</v>
       </c>
       <c r="F114" t="str">
-        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G114" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6444,7 +6444,7 @@
         <v/>
       </c>
       <c r="J114" t="str">
-        <v>07/10/2024</v>
+        <v>07/12/2024</v>
       </c>
       <c r="K114" t="str">
         <v>false</v>
@@ -6466,26 +6466,29 @@
       </c>
       <c r="Q114" t="str">
         <v/>
+      </c>
+      <c r="R114" t="str">
+        <v>Assign tasks to yourself or team members</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>GXSOhE-jB0iV_FVwFlMcdJYACJcB</v>
+        <v>F7oanfR0-U2sRhXmu6bF65YADLGy</v>
       </c>
       <c r="B115" t="str">
-        <v>Creation of Design Freeze for Dust Collector</v>
+        <v>PO release of Rotary Filter</v>
       </c>
       <c r="C115" t="str">
-        <v>GC Transport PH2</v>
+        <v>FFE RARE</v>
       </c>
       <c r="D115" t="str">
-        <v>Not started</v>
+        <v>Completed</v>
       </c>
       <c r="E115" t="str">
         <v>Medium</v>
       </c>
       <c r="F115" t="str">
-        <v>Nagales,Reymart,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Tadena,Francis Carlo,PH-Cagayan de Oro,Engineering,External;Dairo,Ritchel,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G115" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6497,7 +6500,7 @@
         <v/>
       </c>
       <c r="J115" t="str">
-        <v>07/10/2024</v>
+        <v>07/26/2024</v>
       </c>
       <c r="K115" t="str">
         <v>false</v>
@@ -6506,10 +6509,10 @@
         <v>false</v>
       </c>
       <c r="M115" t="str">
-        <v/>
+        <v>07/11/2024</v>
       </c>
       <c r="N115" t="str">
-        <v/>
+        <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="O115" t="str">
         <v/>
@@ -6523,22 +6526,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>-HSgex3d-keTvOed7xmNwpYAKIRR</v>
+        <v>oHmPWxV8J0e1WaA9XV1o-pYALP8P</v>
       </c>
       <c r="B116" t="str">
-        <v>Fully Signed Design Freeze for Dust Collector</v>
+        <v>Scope detailing of Group 3: Doc 15</v>
       </c>
       <c r="C116" t="str">
-        <v>GC Transport PH2</v>
+        <v>PEC2020 - (EA) Process Adaptation</v>
       </c>
       <c r="D116" t="str">
-        <v>Not started</v>
+        <v>Completed</v>
       </c>
       <c r="E116" t="str">
         <v>Medium</v>
       </c>
       <c r="F116" t="str">
-        <v>Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
+        <v>Tion,Kurlstein Jmaes,PH-Cagayan de Oro,Engineering,External;Suello,Rosiell,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="G116" t="str">
         <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
@@ -6547,7 +6550,7 @@
         <v>07/02/2024</v>
       </c>
       <c r="I116" t="str">
-        <v/>
+        <v>07/05/2024</v>
       </c>
       <c r="J116" t="str">
         <v>07/12/2024</v>
@@ -6559,10 +6562,10 @@
         <v>false</v>
       </c>
       <c r="M116" t="str">
-        <v/>
+        <v>07/10/2024</v>
       </c>
       <c r="N116" t="str">
-        <v/>
+        <v>Cabilogan,Khryssmae Rose,PH-Cagayan de Oro,Engineering,External</v>
       </c>
       <c r="O116" t="str">
         <v/>
@@ -6572,9 +6575,6 @@
       </c>
       <c r="Q116" t="str">
         <v/>
-      </c>
-      <c r="R116" t="str">
-        <v>Assign tasks to yourself or team members</v>
       </c>
     </row>
     <row r="117">
@@ -6934,7 +6934,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>07/08/2024</v>
+        <v>07/12/2024</v>
       </c>
     </row>
   </sheetData>

--- a/data/project_timeline/Project Timeline Update.xlsx
+++ b/data/project_timeline/Project Timeline Update.xlsx
@@ -567,7 +567,7 @@
         <v>false</v>
       </c>
       <c r="L3" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -1203,7 +1203,7 @@
         <v>false</v>
       </c>
       <c r="L15" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -1362,7 +1362,7 @@
         <v>false</v>
       </c>
       <c r="L18" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M18" t="str">
         <v/>
@@ -1680,7 +1680,7 @@
         <v>false</v>
       </c>
       <c r="L24" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M24" t="str">
         <v/>
@@ -2051,7 +2051,7 @@
         <v>false</v>
       </c>
       <c r="L31" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M31" t="str">
         <v/>
@@ -2157,7 +2157,7 @@
         <v>false</v>
       </c>
       <c r="L33" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -2263,7 +2263,7 @@
         <v>false</v>
       </c>
       <c r="L35" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M35" t="str">
         <v/>
@@ -5178,7 +5178,7 @@
         <v>false</v>
       </c>
       <c r="L90" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M90" t="str">
         <v/>
@@ -5284,7 +5284,7 @@
         <v>false</v>
       </c>
       <c r="L92" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M92" t="str">
         <v/>
@@ -5472,7 +5472,7 @@
         <v>FFE RARE</v>
       </c>
       <c r="D96" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E96" t="str">
         <v>Medium</v>
@@ -5525,7 +5525,7 @@
         <v>FFE RARE</v>
       </c>
       <c r="D97" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E97" t="str">
         <v>Medium</v>
@@ -5602,7 +5602,7 @@
         <v>false</v>
       </c>
       <c r="L98" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M98" t="str">
         <v/>
@@ -5655,7 +5655,7 @@
         <v>false</v>
       </c>
       <c r="L99" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M99" t="str">
         <v/>
@@ -5708,7 +5708,7 @@
         <v>false</v>
       </c>
       <c r="L100" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M100" t="str">
         <v/>
@@ -5761,7 +5761,7 @@
         <v>false</v>
       </c>
       <c r="L101" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M101" t="str">
         <v/>
@@ -6185,7 +6185,7 @@
         <v>false</v>
       </c>
       <c r="L109" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M109" t="str">
         <v/>
@@ -6238,7 +6238,7 @@
         <v>false</v>
       </c>
       <c r="L110" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M110" t="str">
         <v/>
@@ -6450,7 +6450,7 @@
         <v>false</v>
       </c>
       <c r="L114" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M114" t="str">
         <v/>
@@ -6934,7 +6934,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>07/12/2024</v>
+        <v>07/15/2024</v>
       </c>
     </row>
   </sheetData>
